--- a/data/trans_dic/P44A$sangre-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 40,27</t>
+          <t>0,0; 42,12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,06</t>
+          <t>0,0; 27,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,38; 72,49</t>
+          <t>56,46; 73,48</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,11; 46,98</t>
+          <t>6,15; 45,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,95; 34,04</t>
+          <t>3,92; 33,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,86; 65,6</t>
+          <t>52,71; 66,36</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,4; 33,4</t>
+          <t>3,65; 33,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,84; 20,56</t>
+          <t>2,25; 20,74</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>56,54; 67,2</t>
+          <t>56,97; 67,55</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 29,2</t>
+          <t>3,37; 30,91</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,06; 27,56</t>
+          <t>5,07; 30,24</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,95; 96,77</t>
+          <t>64,11; 96,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 13,69</t>
+          <t>0,0; 14,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 18,91</t>
+          <t>0,0; 18,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>64,92; 76,39</t>
+          <t>65,16; 76,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,64; 15,24</t>
+          <t>1,63; 14,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>5,26; 20,37</t>
+          <t>5,37; 20,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>67,52; 94,59</t>
+          <t>67,57; 95,46</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,56; 29,78</t>
+          <t>3,78; 29,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 25,84</t>
+          <t>2,76; 23,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>51,79; 69,34</t>
+          <t>53,17; 69,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 29,09</t>
+          <t>3,67; 28,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,66</t>
+          <t>0,0; 27,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>69,71; 83,85</t>
+          <t>69,44; 83,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,59; 24,97</t>
+          <t>4,05; 22,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 19,35</t>
+          <t>2,08; 18,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>61,38; 73,51</t>
+          <t>61,97; 73,59</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,07; 44,58</t>
+          <t>13,88; 43,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,55; 23,57</t>
+          <t>4,16; 23,03</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>58,9; 70,81</t>
+          <t>58,87; 70,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 22,64</t>
+          <t>0,0; 25,54</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,73</t>
+          <t>2,61; 22,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>68,09; 78,17</t>
+          <t>68,05; 78,61</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,09; 31,78</t>
+          <t>10,28; 30,51</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,06; 18,67</t>
+          <t>5,18; 17,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,36; 72,97</t>
+          <t>65,72; 73,63</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>11,44; 28,04</t>
+          <t>11,08; 28,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,16; 16,26</t>
+          <t>6,76; 16,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>63,63; 89,93</t>
+          <t>63,62; 89,68</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 15,06</t>
+          <t>4,21; 15,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,84; 15,14</t>
+          <t>3,8; 14,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,41; 73,6</t>
+          <t>67,69; 73,86</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>9,05; 19,45</t>
+          <t>9,22; 19,08</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,64; 14,0</t>
+          <t>6,46; 13,74</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,96; 86,26</t>
+          <t>66,75; 85,69</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>2044</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>1631</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>59575</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>2998</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>3360</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>58263</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5042</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4991</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>117838</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6403</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 8599</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>51878; 67526</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>935; 6982</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>1003; 8439</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>51395; 64697</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>1110; 10132</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1268; 11709</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>107894; 127943</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5941</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>339415</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>989</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>90508</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4099</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7940</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>429923</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>890; 8153</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2002; 11946</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>248100; 374530</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5162</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>0; 6319</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>82878; 97353</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1021; 9146</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3930; 14835</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>347421; 490802</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>3195</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>2921</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>65318</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3111</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>55952</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6306</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4023</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>121269</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>996; 7792</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>849; 7253</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>56705; 74434</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>970; 7531</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5562</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>50210; 60389</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2137; 11715</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1064; 9431</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>110898; 131698</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11299</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6581</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>124738</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2053</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3095</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>133284</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>13352</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9677</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>258021</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5751; 17893</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>2431; 13473</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>112568; 134699</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>0; 7397</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>955; 8330</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>123260; 142381</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>7235; 21477</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>4922; 16767</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>244706; 274153</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>626</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>1082</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>19647</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>17075</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>589045</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9152</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>9556</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>338007</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>28799</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>26631</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>927052</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>12122; 30912</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10801; 26726</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>494134; 696550</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>4504; 16699</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>4410; 16270</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>323638; 353144</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19953; 41268</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>17810; 37903</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>837575; 1075311</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P44A$sangre-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P44A$sangre-Habitat-trans_dic.xlsx
@@ -532,7 +532,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1226,7 +1226,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población al que le han realizado al menor una prueba de sangre oculta en heces para detectar cáncer de colon</t>
+          <t>Población a la que le han realizado al menos una prueba de sangre oculta en heces para detectar cáncer de colon</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
